--- a/Gantt/Gantt - Ingeniería del software.xlsx
+++ b/Gantt/Gantt - Ingeniería del software.xlsx
@@ -8,15 +8,15 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mj4Bkc2kwD0pKO/9KxLho81iJ8l1w=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="c6vw6ar9EeET9x3DCk4EYjl/xMFt1XoJQVWAYlxHwjI="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>Integrantes</t>
   </si>
@@ -81,6 +81,12 @@
     <t>22 - 28 mayo</t>
   </si>
   <si>
+    <t>29 mayo - 04 de junio</t>
+  </si>
+  <si>
+    <t>05 - 06 de junio</t>
+  </si>
+  <si>
     <t>Actividad</t>
   </si>
   <si>
@@ -132,6 +138,9 @@
     <t>Semana 17</t>
   </si>
   <si>
+    <t>Semana 18</t>
+  </si>
+  <si>
     <t>Recepción y análisis de requerimiento.</t>
   </si>
   <si>
@@ -147,70 +156,67 @@
     <t>Creación de diagramas de Casos de Uso.</t>
   </si>
   <si>
-    <t xml:space="preserve">sofia </t>
-  </si>
-  <si>
     <t>Creación de diagrama de estados.</t>
   </si>
   <si>
-    <t>anderson</t>
-  </si>
-  <si>
     <t>Creación de entidad relación.</t>
   </si>
   <si>
-    <t>sofia</t>
-  </si>
-  <si>
     <t>Creación de prototipos.</t>
   </si>
   <si>
-    <t>PENCIL</t>
-  </si>
-  <si>
     <t>Creación y ajustes de casos de uso.</t>
   </si>
   <si>
     <t>Creación de base de datos.</t>
   </si>
   <si>
+    <t>Creacion de diagrama de secuencias</t>
+  </si>
+  <si>
     <t>Creación de diagrama de clases.</t>
   </si>
   <si>
     <t>Creación y actualizacion de acta de constitución del proyecto.</t>
   </si>
   <si>
+    <t xml:space="preserve">Arquitectura del proyecto </t>
+  </si>
+  <si>
     <t>Desarrollo: Frontend</t>
   </si>
   <si>
     <t>Desarrollo: Backend</t>
   </si>
   <si>
-    <t>Desarrollo: WS</t>
-  </si>
-  <si>
     <t>Creación de repositorio y carga de versión inicial.</t>
   </si>
   <si>
     <t>Versionamiento periódico.</t>
   </si>
   <si>
+    <t>Implementación en la nube (Backend)</t>
+  </si>
+  <si>
+    <t>Implementación en la nube (Frontend)</t>
+  </si>
+  <si>
     <t>Pruebas de Calidad.</t>
   </si>
   <si>
     <t>Infome de pruebas.</t>
   </si>
   <si>
-    <t>Prueba al WS</t>
-  </si>
-  <si>
-    <t>Arquitectura del proyecto (publicación en nube)</t>
+    <t>Infome final de pruebas.</t>
   </si>
   <si>
     <t>Creación de Manual técnico.</t>
   </si>
   <si>
     <t>Creación de Manual de usuario.</t>
+  </si>
+  <si>
+    <t>Entrega Final</t>
   </si>
 </sst>
 </file>
@@ -260,7 +266,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,8 +303,14 @@
         <bgColor rgb="FFC5E0B3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="21">
     <border/>
     <border>
       <left style="medium">
@@ -328,10 +340,6 @@
       <top/>
     </border>
     <border>
-      <right/>
-      <top/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -348,12 +356,6 @@
       </bottom>
     </border>
     <border>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -484,11 +486,19 @@
         <color rgb="FFA5A5A5"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin">
+        <color rgb="FFA5A5A5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA5A5A5"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -498,53 +508,60 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="5" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="8" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" textRotation="90" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" textRotation="90" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" textRotation="90" wrapText="1"/>
     </xf>
+    <xf borderId="10" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="13" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="14" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="5" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="18" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="5" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="16" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="18" fillId="5" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="0" fontId="2" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="16" fillId="5" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="16" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="0" fontId="2" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="17" fillId="6" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="17" fillId="0" fontId="2" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="15" fillId="6" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="15" fillId="0" fontId="2" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="19" fillId="6" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="20" fillId="6" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="6" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="18" fillId="6" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="19" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="7" fontId="2" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="15" fillId="7" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="19" fillId="6" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="21" fillId="6" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="20" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="20" fillId="6" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -790,195 +807,203 @@
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
-      <c r="R1" s="5"/>
+      <c r="R1" s="4"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="9"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
     <row r="3" ht="13.5" customHeight="1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="N3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="O3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="P3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="Q3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="R3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
+      <c r="S3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="2"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="20" t="s">
+      <c r="A6" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="D6" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="E6" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="F6" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="G6" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="H6" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="I6" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="J6" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="K6" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="N6" s="20" t="s">
+      <c r="L6" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="O6" s="20" t="s">
+      <c r="M6" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="P6" s="20" t="s">
+      <c r="N6" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="Q6" s="20" t="s">
+      <c r="O6" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="R6" s="20" t="s">
+      <c r="P6" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
+      <c r="Q6" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="R6" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="S6" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="T6" s="20" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B7" s="22">
         <v>1.0</v>
@@ -999,15 +1024,15 @@
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
       <c r="R7" s="21"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
     </row>
     <row r="8">
       <c r="A8" s="21" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B8" s="24">
-        <v>0.1</v>
+        <v>1.0</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
@@ -1024,13 +1049,13 @@
       <c r="O8" s="23"/>
       <c r="P8" s="23"/>
       <c r="Q8" s="23"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="21"/>
     </row>
     <row r="9">
       <c r="A9" s="21" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B9" s="22">
         <v>1.0</v>
@@ -1051,14 +1076,14 @@
       <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
       <c r="R9" s="21"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
     </row>
     <row r="10">
       <c r="A10" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="24">
+        <v>44</v>
+      </c>
+      <c r="B10" s="22">
         <v>1.0</v>
       </c>
       <c r="C10" s="21"/>
@@ -1077,22 +1102,20 @@
       <c r="P10" s="21"/>
       <c r="Q10" s="21"/>
       <c r="R10" s="21"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
     </row>
     <row r="11">
       <c r="A11" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="24">
+        <v>45</v>
+      </c>
+      <c r="B11" s="22">
         <v>1.0</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
-      <c r="F11" s="27" t="s">
-        <v>43</v>
-      </c>
+      <c r="F11" s="23"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
@@ -1105,22 +1128,20 @@
       <c r="P11" s="21"/>
       <c r="Q11" s="21"/>
       <c r="R11" s="21"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
     </row>
     <row r="12">
       <c r="A12" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="24">
+        <v>46</v>
+      </c>
+      <c r="B12" s="22">
         <v>1.0</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
-      <c r="F12" s="27" t="s">
-        <v>45</v>
-      </c>
+      <c r="F12" s="23"/>
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
@@ -1133,23 +1154,21 @@
       <c r="P12" s="21"/>
       <c r="Q12" s="21"/>
       <c r="R12" s="21"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
     </row>
     <row r="13">
       <c r="A13" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="22">
-        <v>0.0</v>
+        <v>47</v>
+      </c>
+      <c r="B13" s="24">
+        <v>1.0</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
-      <c r="G13" s="28" t="s">
-        <v>47</v>
-      </c>
+      <c r="G13" s="25"/>
       <c r="H13" s="25"/>
       <c r="I13" s="21"/>
       <c r="J13" s="21"/>
@@ -1161,26 +1180,22 @@
       <c r="P13" s="21"/>
       <c r="Q13" s="21"/>
       <c r="R13" s="21"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
     </row>
     <row r="14">
       <c r="A14" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="22">
-        <v>0.0</v>
+      <c r="B14" s="24">
+        <v>1.0</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
-      <c r="G14" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="29" t="s">
-        <v>49</v>
-      </c>
+      <c r="G14" s="23"/>
+      <c r="H14" s="21"/>
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
@@ -1191,15 +1206,15 @@
       <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
       <c r="R14" s="21"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
     </row>
     <row r="15">
       <c r="A15" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="22">
-        <v>0.0</v>
+        <v>49</v>
+      </c>
+      <c r="B15" s="24">
+        <v>1.0</v>
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
@@ -1217,15 +1232,15 @@
       <c r="P15" s="21"/>
       <c r="Q15" s="21"/>
       <c r="R15" s="21"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
     </row>
     <row r="16">
       <c r="A16" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="22">
-        <v>0.0</v>
+        <v>50</v>
+      </c>
+      <c r="B16" s="24">
+        <v>1.0</v>
       </c>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
@@ -1243,15 +1258,15 @@
       <c r="P16" s="21"/>
       <c r="Q16" s="21"/>
       <c r="R16" s="21"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
     </row>
     <row r="17">
-      <c r="A17" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="22">
-        <v>0.0</v>
+      <c r="A17" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="28">
+        <v>1.0</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
@@ -1269,100 +1284,100 @@
       <c r="P17" s="21"/>
       <c r="Q17" s="21"/>
       <c r="R17" s="21"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-    </row>
-    <row r="18" ht="15.0" customHeight="1">
-      <c r="A18" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="22">
-        <v>0.0</v>
+      <c r="S17" s="26"/>
+      <c r="T17" s="21"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="28">
+        <v>1.0</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="22">
-        <v>0.0</v>
+      <c r="H18" s="23"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="21"/>
+    </row>
+    <row r="19" ht="15.0" customHeight="1">
+      <c r="A19" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="24">
+        <v>1.0</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
-      <c r="H19" s="31"/>
+      <c r="H19" s="21"/>
       <c r="I19" s="31"/>
       <c r="J19" s="31"/>
       <c r="K19" s="31"/>
       <c r="L19" s="31"/>
       <c r="M19" s="31"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="22">
-        <v>0.0</v>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="21"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="24">
+        <v>1.0</v>
       </c>
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
       <c r="Q20" s="21"/>
       <c r="R20" s="21"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+    </row>
+    <row r="21">
       <c r="A21" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="22">
-        <v>0.0</v>
+        <v>55</v>
+      </c>
+      <c r="B21" s="24">
+        <v>1.0</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
+      <c r="H21" s="31"/>
       <c r="I21" s="31"/>
       <c r="J21" s="31"/>
       <c r="K21" s="31"/>
@@ -1373,67 +1388,67 @@
       <c r="P21" s="26"/>
       <c r="Q21" s="21"/>
       <c r="R21" s="21"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+    </row>
+    <row r="22">
       <c r="A22" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="22">
-        <v>0.0</v>
+        <v>56</v>
+      </c>
+      <c r="B22" s="24">
+        <v>1.0</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
       <c r="G22" s="21"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="26"/>
       <c r="Q22" s="21"/>
       <c r="R22" s="21"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="22">
-        <v>0.0</v>
+        <v>57</v>
+      </c>
+      <c r="B23" s="24">
+        <v>1.0</v>
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
       <c r="O23" s="21"/>
       <c r="P23" s="21"/>
       <c r="Q23" s="21"/>
       <c r="R23" s="21"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="22">
-        <v>0.0</v>
+        <v>58</v>
+      </c>
+      <c r="B24" s="24">
+        <v>1.0</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
@@ -1441,25 +1456,25 @@
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="25"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
       <c r="P24" s="26"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" s="22">
-        <v>0.0</v>
+      <c r="A25" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="24">
+        <v>1.0</v>
       </c>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
@@ -1467,25 +1482,25 @@
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
       <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="25"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="34"/>
       <c r="P25" s="26"/>
       <c r="Q25" s="26"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="22">
-        <v>0.0</v>
+      <c r="A26" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="24">
+        <v>1.0</v>
       </c>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
@@ -1493,25 +1508,25 @@
       <c r="F26" s="21"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
       <c r="L26" s="21"/>
       <c r="M26" s="21"/>
       <c r="N26" s="21"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="22">
-        <v>0.0</v>
+        <v>61</v>
+      </c>
+      <c r="B27" s="24">
+        <v>1.0</v>
       </c>
       <c r="C27" s="21"/>
       <c r="D27" s="21"/>
@@ -1523,21 +1538,21 @@
       <c r="J27" s="21"/>
       <c r="K27" s="21"/>
       <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="22">
-        <v>0.0</v>
+      <c r="A28" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="28">
+        <v>0.3</v>
       </c>
       <c r="C28" s="21"/>
       <c r="D28" s="21"/>
@@ -1553,17 +1568,17 @@
       <c r="N28" s="21"/>
       <c r="O28" s="21"/>
       <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
+      <c r="Q28" s="26"/>
       <c r="R28" s="26"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="21"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" s="22">
-        <v>0.0</v>
+      <c r="A29" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="24">
+        <v>1.0</v>
       </c>
       <c r="C29" s="21"/>
       <c r="D29" s="21"/>
@@ -1580,75 +1595,87 @@
       <c r="O29" s="21"/>
       <c r="P29" s="21"/>
       <c r="Q29" s="21"/>
-      <c r="R29" s="26"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
+      <c r="A30" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="21"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
+      <c r="A31" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
+      <c r="A32" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="26"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="2"/>
@@ -1782,8 +1809,50 @@
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+    </row>
     <row r="41" ht="15.75" customHeight="1"/>
     <row r="42" ht="15.75" customHeight="1"/>
     <row r="43" ht="15.75" customHeight="1"/>
@@ -2744,8 +2813,10 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="1002" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="20">
     <mergeCell ref="H3:H5"/>
     <mergeCell ref="I3:I5"/>
     <mergeCell ref="J3:J5"/>
@@ -2756,6 +2827,9 @@
     <mergeCell ref="O3:O5"/>
     <mergeCell ref="P3:P5"/>
     <mergeCell ref="Q3:Q5"/>
+    <mergeCell ref="R3:R5"/>
+    <mergeCell ref="S3:S5"/>
+    <mergeCell ref="T3:T5"/>
     <mergeCell ref="C1:R2"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
@@ -2763,7 +2837,6 @@
     <mergeCell ref="E3:E5"/>
     <mergeCell ref="F3:F5"/>
     <mergeCell ref="G3:G5"/>
-    <mergeCell ref="R3:R5"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
